--- a/144F20/Topic 5/Topic 5 DQ 1 and 2.xlsx
+++ b/144F20/Topic 5/Topic 5 DQ 1 and 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{18D2D16A-6A7D-4B55-89A7-0B5F3C252096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07E0DA9-F1AA-4AF2-8F66-F9C07448154C}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{18D2D16A-6A7D-4B55-89A7-0B5F3C252096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1881A61A-C3FF-4F9C-8635-2ED13732BB1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1764" windowWidth="19728" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="170">
   <si>
     <t>State</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">Split the data up into 6 equal length bins. To make sure that all of the data falls into a bin, split the interval (Min - 1, Max + 1] into six sub intervals. The length of each sub interval will be ((Max + 1) - (Min -1))/6. We call this the bin width. </t>
-  </si>
-  <si>
-    <t>Video</t>
   </si>
   <si>
     <t>Seed</t>
@@ -1199,6 +1196,122 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1234,15 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1252,92 +1356,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1377,53 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1874,50 +1871,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="D1" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="D1" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+        <v>105</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="D4" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
+      <c r="D4" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
@@ -1926,17 +1923,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="J6" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1946,11 +1943,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1989,11 +1986,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="39"/>
       <c r="H9" s="15"/>
       <c r="J9" s="11" t="s">
@@ -2014,11 +2011,11 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40"/>
       <c r="J10" s="12" t="s">
@@ -2037,13 +2034,13 @@
         <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2059,11 +2056,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2073,11 +2070,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2087,11 +2084,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110.76</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2104,11 +2101,11 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40"/>
     </row>
@@ -2123,11 +2120,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="40"/>
       <c r="H16" s="2"/>
     </row>
@@ -2202,12 +2199,12 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
@@ -2223,10 +2220,10 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
@@ -2242,10 +2239,10 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="113"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="105"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
@@ -2272,13 +2269,13 @@
         <v>114.29</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
@@ -2288,11 +2285,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="96"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2302,11 +2299,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2316,11 +2313,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104.41</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2333,16 +2330,13 @@
       <c r="C28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="40" t="s">
-        <v>82</v>
-      </c>
+      <c r="D28" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
@@ -2352,11 +2346,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114.6</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2368,6 +2362,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
@@ -2709,7 +2704,6 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="5" t="s">
@@ -2800,6 +2794,12 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
+    <mergeCell ref="I20:K22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
@@ -2807,25 +2807,18 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D4:H5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
-    <mergeCell ref="I20:K22"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:K19 A23:K56 A20:I20 A21:H22 A5:C5 I5:K5">
+  <conditionalFormatting sqref="A6:K19 A20:I20 A21:H22 A5:C5 I5:K5 A23:K27 A28:H56 J28:K56 I28:I48 I50:I55">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1" xr:uid="{90D42186-3EC6-4CBA-A9A6-D390BD68B385}"/>
-    <hyperlink ref="D4:H5" r:id="rId2" display="Video instruction for this " xr:uid="{15558009-77A1-4417-B6BD-6531B986297C}"/>
+    <hyperlink ref="D4:H5" r:id="rId1" display="Video instruction for this " xr:uid="{15558009-77A1-4417-B6BD-6531B986297C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2874,17 +2867,17 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
+      <c r="J1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -2894,11 +2887,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -2960,13 +2953,13 @@
         <v>120.74</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
       <c r="J5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2982,11 +2975,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142.01</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3002,11 +2995,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -3016,11 +3009,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -3033,11 +3026,11 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40"/>
     </row>
@@ -3052,15 +3045,15 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -3085,9 +3078,9 @@
       <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
@@ -3194,13 +3187,13 @@
         <v>114.27</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -3210,11 +3203,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114.29</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3224,11 +3217,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3238,11 +3231,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3255,13 +3248,13 @@
       <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
@@ -3272,11 +3265,11 @@
         <f ca="1">Sheet1!K41</f>
         <v>119.21</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
@@ -4275,7 +4268,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
@@ -4338,7 +4331,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*G11+G12,G13)</f>
@@ -4417,7 +4410,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
@@ -4496,7 +4489,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4572,7 +4565,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4648,7 +4641,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4724,7 +4717,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4800,7 +4793,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4825,7 +4818,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4850,7 +4843,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4885,7 +4878,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4920,7 +4913,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4956,7 +4949,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4992,7 +4985,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5028,7 +5021,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5064,7 +5057,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5100,7 +5093,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5136,7 +5129,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5172,7 +5165,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5208,7 +5201,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5244,7 +5237,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5280,7 +5273,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5316,7 +5309,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5352,7 +5345,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
@@ -5387,7 +5380,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5422,7 +5415,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5457,7 +5450,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5492,7 +5485,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5527,7 +5520,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5562,7 +5555,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5597,7 +5590,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5632,7 +5625,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5667,7 +5660,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5702,7 +5695,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5737,7 +5730,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5772,7 +5765,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5807,7 +5800,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5842,7 +5835,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5877,7 +5870,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5912,7 +5905,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5947,7 +5940,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5982,7 +5975,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6017,7 +6010,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6052,7 +6045,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6087,7 +6080,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6122,7 +6115,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6157,7 +6150,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6192,7 +6185,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6227,7 +6220,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6262,7 +6255,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6297,7 +6290,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6332,7 +6325,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6367,7 +6360,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6402,7 +6395,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6437,7 +6430,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6472,7 +6465,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6507,7 +6500,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6542,7 +6535,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6577,7 +6570,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6612,7 +6605,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6637,7 +6630,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6662,7 +6655,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6687,7 +6680,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6712,7 +6705,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6737,7 +6730,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6762,7 +6755,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6787,7 +6780,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6812,7 +6805,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6837,7 +6830,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6862,7 +6855,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B80" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6887,7 +6880,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B81" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6912,7 +6905,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6937,7 +6930,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6962,7 +6955,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6987,7 +6980,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7012,7 +7005,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7037,7 +7030,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7062,7 +7055,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7087,7 +7080,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7112,7 +7105,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7152,78 +7145,78 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="2:8">
-      <c r="B7" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="B7" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7235,6 +7228,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7474,25 +7485,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51EC0E-1F4D-4A53-9313-26AAFAC23B23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7510,22 +7521,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>